--- a/风险登记册.xlsx
+++ b/风险登记册.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6B700A-1F9E-45AA-98D4-DA68E485784B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDF32C-FD6C-4836-A2C7-467B921150D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
@@ -156,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,13 +179,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +237,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,19 +584,19 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -626,12 +672,12 @@
       <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="3" t="s">
         <v>17</v>
       </c>
@@ -875,7 +921,7 @@
       <c r="S13" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A4"/>
@@ -891,6 +937,7 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
